--- a/tests/resources/test_master_4_2017.xlsx
+++ b/tests/resources/test_master_4_2017.xlsx
@@ -595,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AMP1300"/>
+  <dimension ref="A1:AMJ1300"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8386,7 +8386,7 @@
     <row r="347" ht="15" customHeight="1" s="20">
       <c r="A347" s="18" t="inlineStr">
         <is>
-          <t>16-17 RDEL Actual one off new costs</t>
+          <t>16-17 RDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="C347" s="19" t="n">
@@ -8553,7 +8553,7 @@
     <row r="355" ht="15" customHeight="1" s="20">
       <c r="A355" s="18" t="inlineStr">
         <is>
-          <t>Pre 17-18 RDEL Actual one off new costs</t>
+          <t xml:space="preserve">Pre-profile RDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B355" s="19" t="n">
@@ -9001,7 +9001,7 @@
     <row r="375" ht="15" customFormat="1" customHeight="1" s="23">
       <c r="A375" s="30" t="inlineStr">
         <is>
-          <t>Pre 18-19 RDEL Forecast one off new costs</t>
+          <t xml:space="preserve">Pre-profile RDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B375" s="31" t="n"/>
@@ -9378,7 +9378,7 @@
     <row r="391" ht="15" customHeight="1" s="20">
       <c r="A391" s="18" t="inlineStr">
         <is>
-          <t>Pre 19-20 RDEL Forecast one off new costs</t>
+          <t xml:space="preserve">Pre-profile RDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="E391" s="22" t="n"/>
@@ -11498,7 +11498,7 @@
     <row r="537" ht="15" customHeight="1" s="20">
       <c r="A537" s="18" t="inlineStr">
         <is>
-          <t>16-17 CDEL Actual one off new costs</t>
+          <t>16-17 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="E537" s="22" t="n"/>
@@ -11632,7 +11632,7 @@
     <row r="545" ht="15" customHeight="1" s="20">
       <c r="A545" s="18" t="inlineStr">
         <is>
-          <t>Pre 17-18 CDEL Actual one off new costs</t>
+          <t xml:space="preserve">Pre-profile CDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B545" s="19" t="n">
@@ -11931,7 +11931,7 @@
     <row r="560" ht="15" customHeight="1" s="20">
       <c r="A560" s="18" t="inlineStr">
         <is>
-          <t>17-18 CDEL Forecast Total</t>
+          <t>17-18 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B560" s="19" t="n">
@@ -12055,7 +12055,7 @@
     <row r="568" ht="15" customHeight="1" s="20">
       <c r="A568" s="18" t="inlineStr">
         <is>
-          <t>Pre 18-19 CDEL Forecast Total</t>
+          <t xml:space="preserve">Pre-profile CDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B568" s="23" t="n">
@@ -12221,7 +12221,7 @@
     <row r="576" ht="15" customHeight="1" s="20">
       <c r="A576" s="18" t="inlineStr">
         <is>
-          <t>18-19 CDEL Forecast Total</t>
+          <t>18-19 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B576" s="19" t="n">
@@ -12313,7 +12313,7 @@
     <row r="584" ht="15" customHeight="1" s="20">
       <c r="A584" s="18" t="inlineStr">
         <is>
-          <t>Pre 19-20 CDEL Forecast Total</t>
+          <t xml:space="preserve">Pre-profile CDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B584" s="19" t="n">
@@ -12489,7 +12489,7 @@
     <row r="592" ht="15" customHeight="1" s="20">
       <c r="A592" s="18" t="inlineStr">
         <is>
-          <t>19-20 CDEL Forecast Total</t>
+          <t>19-20 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B592" s="19" t="n">
@@ -12757,7 +12757,7 @@
     <row r="608" ht="15" customHeight="1" s="20">
       <c r="A608" s="18" t="inlineStr">
         <is>
-          <t>20-21 CDEL Forecast Total</t>
+          <t>20-21 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B608" s="19" t="n">
@@ -13021,7 +13021,7 @@
     <row r="624" ht="15" customHeight="1" s="20">
       <c r="A624" s="18" t="inlineStr">
         <is>
-          <t>21-22 CDEL Forecast Total</t>
+          <t>21-22 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B624" s="19" t="n">
@@ -13209,7 +13209,7 @@
     <row r="640" ht="15" customHeight="1" s="20">
       <c r="A640" s="18" t="inlineStr">
         <is>
-          <t>22-23 CDEL Forecast Total</t>
+          <t>22-23 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B640" s="19" t="n">
@@ -13305,7 +13305,7 @@
     <row r="648" ht="15" customHeight="1" s="20">
       <c r="A648" s="18" t="inlineStr">
         <is>
-          <t>23-24 CDEL Forecast Total</t>
+          <t>23-24 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B648" s="19" t="n">
@@ -13401,7 +13401,7 @@
     <row r="656" ht="15" customHeight="1" s="20">
       <c r="A656" s="18" t="inlineStr">
         <is>
-          <t>24-25 CDEL Forecast Total</t>
+          <t>24-25 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B656" s="19" t="n">
@@ -13497,7 +13497,7 @@
     <row r="664" ht="15" customHeight="1" s="20">
       <c r="A664" s="18" t="inlineStr">
         <is>
-          <t>25-26 CDEL Forecast Total</t>
+          <t>25-26 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B664" s="19" t="n">
@@ -13589,7 +13589,7 @@
     <row r="672" ht="15" customHeight="1" s="20">
       <c r="A672" s="18" t="inlineStr">
         <is>
-          <t>26-27 CDEL Forecast Total</t>
+          <t>26-27 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B672" s="19" t="n">
@@ -13681,7 +13681,7 @@
     <row r="680" ht="15" customHeight="1" s="20">
       <c r="A680" s="18" t="inlineStr">
         <is>
-          <t>27-28 CDEL Forecast Total</t>
+          <t>27-28 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B680" s="19" t="n">
@@ -13853,7 +13853,7 @@
     <row r="688" ht="15" customHeight="1" s="20">
       <c r="A688" s="18" t="inlineStr">
         <is>
-          <t>Unprofiled CDEL Forecast Total</t>
+          <t>Unprofiled CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B688" s="19" t="n">
@@ -14029,7 +14029,7 @@
     <row r="696" ht="15" customHeight="1" s="20">
       <c r="A696" s="18" t="inlineStr">
         <is>
-          <t>Total CDEL Forecast Total</t>
+          <t>Total CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B696" s="19" t="n">
@@ -14249,7 +14249,7 @@
     <row r="712" ht="15" customHeight="1" s="20">
       <c r="A712" s="18" t="inlineStr">
         <is>
-          <t>Pre 17-18 Actual Non-Gov</t>
+          <t>Pre-profile Forecast Non-Gov</t>
         </is>
       </c>
       <c r="C712" s="19" t="n">
@@ -14360,7 +14360,7 @@
     <row r="717" ht="15" customFormat="1" customHeight="1" s="23">
       <c r="A717" s="30" t="inlineStr">
         <is>
-          <t>Pre 18-19 Forecast Non-Gov</t>
+          <t>Pre-profile Forecast Non-Gov</t>
         </is>
       </c>
       <c r="C717" s="23" t="n">
@@ -14449,7 +14449,7 @@
     <row r="721" ht="15" customHeight="1" s="20">
       <c r="A721" s="18" t="inlineStr">
         <is>
-          <t>Pre 19-20 Forecast Non-Gov</t>
+          <t>Pre-profile Forecast Non-Gov</t>
         </is>
       </c>
       <c r="E721" s="22" t="n"/>
@@ -23208,7 +23208,7 @@
     <row r="1291" ht="13.8" customFormat="1" customHeight="1" s="33">
       <c r="A1291" s="33" t="inlineStr">
         <is>
-          <t>Pre-profile CDEL</t>
+          <t xml:space="preserve">Pre-profile CDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B1291" s="33" t="n">
@@ -23304,7 +23304,7 @@
     <row r="1294" ht="15" customHeight="1" s="20">
       <c r="A1294" s="18" t="inlineStr">
         <is>
-          <t>Pre 17-18 Actual Non-Gov</t>
+          <t>Pre-profile Forecast Non-Gov</t>
         </is>
       </c>
       <c r="C1294" s="19" t="n">
@@ -23373,7 +23373,7 @@
     <row r="1296" ht="15" customHeight="1" s="20">
       <c r="A1296" s="18" t="inlineStr">
         <is>
-          <t>Total CDEL Forecast Total</t>
+          <t>Total CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1296" s="19" t="n">
@@ -23469,7 +23469,7 @@
     <row r="1299" ht="15" customHeight="1" s="20">
       <c r="A1299" s="18" t="inlineStr">
         <is>
-          <t>Unprofiled CDEL Forecast Total</t>
+          <t>Unprofiled CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1299" s="19" t="n">
